--- a/medicine/Enfance/Jean-Louis_Mayne/Jean-Louis_Mayne.xlsx
+++ b/medicine/Enfance/Jean-Louis_Mayne/Jean-Louis_Mayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Mayne, pseudonyme de Charles Raikem, né le 31 décembre 1903 en Belgique, est un romancier belge de langue française, auteur de littérature populaire. Il a également employé les pseudonymes Pierre Moralie et André Michel pour publier des récits d'aventures de littérature d'enfance et de jeunesse. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il amorce sa carrière littéraire en 1936, en publiant, sous le pseudonyme Pierre Moralie, L'Île engloutie, le premier de quatre roman d'aventures destinés à la collection jeunesse Voyages et Aventures des éditions Ferenczi. 
 Après la Seconde Guerre mondiale, il reprend la plume pour donner d'autres récits d'aventures pour la collection Mon roman d'aventures, toujours chez Ferenczi. 
@@ -546,22 +560,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Lord Palmer
-L'Archange aux ailes brisés, Paris, Ferenczi, « Mon roman d'aventures » no 367, 1955
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Lord Palmer</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Archange aux ailes brisés, Paris, Ferenczi, « Mon roman d'aventures » no 367, 1955
 L'archange reprend son vol, Paris, Ferenczi, « Mon roman d'aventures » no 374, 1955
 L'archange visite le Campo-Santo, Paris, Ferenczi, « Mon roman d'aventures » no 389, 1956
 L'Archange et les Requins, Paris, Librairie des Champs-Élysées, Le Masque no 703, 1960
-L'Archange et le Fantôme, Paris, Librairie des Champs-Élysées, Le Masque. Espionnage, 1re série no 29, 1961
-Autres romans
-Le Nain de la Sanga, Paris, Ferenczi, « Mon roman d'aventures » no 405, 1956
+L'Archange et le Fantôme, Paris, Librairie des Champs-Élysées, Le Masque. Espionnage, 1re série no 29, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Nain de la Sanga, Paris, Ferenczi, « Mon roman d'aventures » no 405, 1956
 Pauvre Johnny, Paris, Ferenczi, « Mon roman d'aventures » no 412, 1956
-L'Arrestation de Monsieur X, Paris, Ferenczi, « Le Verrou » no 145, 1956
-Romans signés Pierre Moralie
-L'Île engloutie, Paris, Ferenczi, « Voyages et Aventures » no 112, 1936
-Le Rayon du néant, Paris, Ferenczi, « Voyages et Aventures » no 151, 1936
-Romans signés André Michel
-Le Secret de Tokita, Paris, Ferenczi, « Le petit roman d'aventures » no 65, 1937
+L'Arrestation de Monsieur X, Paris, Ferenczi, « Le Verrou » no 145, 1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Pierre Moralie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Île engloutie, Paris, Ferenczi, « Voyages et Aventures » no 112, 1936
+Le Rayon du néant, Paris, Ferenczi, « Voyages et Aventures » no 151, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Mayne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés André Michel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Secret de Tokita, Paris, Ferenczi, « Le petit roman d'aventures » no 65, 1937
 L'Oiseau du pôle, Paris, Ferenczi, « Voyages et Aventures » no 200, 1937
 Le Dieu vivant, Paris, Ferenczi, « Voyages et Aventures » no 346, 1940
 Le Mystère de la pyramide, Paris, Ferenczi, « Mon roman d'aventures » no 73, 1948
@@ -569,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jean-Louis_Mayne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Louis_Mayne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 306.</t>
         </is>
